--- a/Message Project/PhoneData.xlsx
+++ b/Message Project/PhoneData.xlsx
@@ -47,21 +47,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,105 +436,116 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="13.7109375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.5703125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="5"/>
-    <col width="23" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.140625" customWidth="1" style="1" min="7" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13.7109375" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.5703125" customWidth="1" style="3" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="3" min="5" max="5"/>
+    <col width="23" customWidth="1" style="3" min="6" max="6"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="9.140625" customWidth="1" style="3" min="8" max="21"/>
+    <col width="9.140625" customWidth="1" style="3" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Phone number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Message</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Time </t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>minutes</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Last sent</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>David</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="n">
         <v>533309789</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Hello David</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <v>44564</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.4479166666666667</v>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>3/1-12:36</t>
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>5/1-15:46</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Andrey</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="3" t="n">
         <v>547440809</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Hello Andrey</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <v>44564</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.4895833333333333</v>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>3/1-12:36</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="n"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>5/1-15:47</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Message Project/PhoneData.xlsx
+++ b/Message Project/PhoneData.xlsx
@@ -1,35 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaovchernko\PycharmProjects\pythonProject\Message Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9DD357-CCB6-40E2-9B53-AE15B41895DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>Last sent</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Hello David</t>
+  </si>
+  <si>
+    <t>6-1 13:9</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t>Hello Andrey</t>
+  </si>
+  <si>
+    <t>6-1 13:10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,87 +98,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,123 +419,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="13.7109375" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.5703125" customWidth="1" style="3" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="3" min="5" max="5"/>
-    <col width="23" customWidth="1" style="3" min="6" max="6"/>
-    <col width="9.140625" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.140625" customWidth="1" style="3" min="8" max="21"/>
-    <col width="9.140625" customWidth="1" style="3" min="22" max="16384"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="9.140625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Message</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>hours</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>minutes</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Last sent</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>547440809</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44567</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
         <v>533309789</v>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Hello David</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>44564</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>5/1-15:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Andrey</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>547440809</v>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Hello Andrey</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>44564</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>5/1-15:47</t>
-        </is>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44567</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
